--- a/data/trans_bre/P33A-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P33A-Edad-trans_bre.xlsx
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-14.77861006014896</v>
+        <v>-15.32941973707156</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-12.33511325657684</v>
+        <v>-13.25537894359077</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-13.7213907530969</v>
+        <v>-13.641022089555</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.1659941383309111</v>
+        <v>-0.1712435146358645</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.1408246451031692</v>
+        <v>-0.1488616328396135</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.1429399960352633</v>
+        <v>-0.143520945532759</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-4.273202746141201</v>
+        <v>-4.675263723921232</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-1.579258066986198</v>
+        <v>-2.184336120575038</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-0.6787176036163277</v>
+        <v>-1.236737201672417</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>-0.05058424339502152</v>
+        <v>-0.0547389303254872</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-0.01930709216630372</v>
+        <v>-0.02554963459546595</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>-0.007998164394922449</v>
+        <v>-0.01414303878138642</v>
       </c>
     </row>
     <row r="7">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-12.79373424560758</v>
+        <v>-13.14770539505655</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-10.4067739246877</v>
+        <v>-10.68465589391309</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-8.625863226345283</v>
+        <v>-8.769437206937001</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1494826209516372</v>
+        <v>-0.1537566255130468</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.123152998196909</v>
+        <v>-0.1258731583495198</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.09721069967761953</v>
+        <v>-0.09727553093421677</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-3.552429409809428</v>
+        <v>-4.411144222656039</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-1.077848864332425</v>
+        <v>-1.220308374960902</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.848153674010502</v>
+        <v>1.839093415517275</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.04399516749357025</v>
+        <v>-0.05317464189090899</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.01355139827355585</v>
+        <v>-0.01530983541590046</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02145829477955697</v>
+        <v>0.02190828275911719</v>
       </c>
     </row>
     <row r="10">
@@ -782,7 +782,7 @@
         <v>-7.062196730883386</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-6.48807824580161</v>
+        <v>-6.488078245801598</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>-0.1163992840835464</v>
@@ -791,7 +791,7 @@
         <v>-0.08587120762029662</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>-0.07782298972311531</v>
+        <v>-0.07782298972311519</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-14.21425028643184</v>
+        <v>-14.25486229222452</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-11.40137501883062</v>
+        <v>-11.52107131998464</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-10.8363478329156</v>
+        <v>-10.79772069682244</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.1684478240973216</v>
+        <v>-0.1675887854116452</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.1370167218296141</v>
+        <v>-0.1365931700506542</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.1270730359073255</v>
+        <v>-0.1264705199186602</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-5.438538062614223</v>
+        <v>-5.117349145086991</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-2.320150790420303</v>
+        <v>-1.912429658521277</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-1.929236927471044</v>
+        <v>-2.281849691052376</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>-0.0669567965826291</v>
+        <v>-0.0630820923551532</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-0.02981386784131021</v>
+        <v>-0.02408528614191112</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>-0.02416883118268377</v>
+        <v>-0.0284066119650559</v>
       </c>
     </row>
     <row r="13">
@@ -864,7 +864,7 @@
         <v>-13.19213122239006</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>-8.043015660163144</v>
+        <v>-8.0430156601631</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.1880954477115678</v>
@@ -873,7 +873,7 @@
         <v>-0.1599290197913129</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.09893768847653157</v>
+        <v>-0.09893768847653106</v>
       </c>
     </row>
     <row r="14">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-21.29624748791365</v>
+        <v>-21.0363015782842</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-17.99780704600325</v>
+        <v>-17.97600870501651</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-12.02503789704578</v>
+        <v>-12.32601234880705</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2437733613908486</v>
+        <v>-0.2411370609157656</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.214900154080459</v>
+        <v>-0.2137728407185061</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1438036882392375</v>
+        <v>-0.1470509775248612</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-11.06051589519939</v>
+        <v>-11.18563750622565</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-8.429961358861032</v>
+        <v>-8.014826288355868</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-4.372083950419358</v>
+        <v>-4.173262742483722</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.1323919417441796</v>
+        <v>-0.1335226503342534</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.1046987150444512</v>
+        <v>-0.09826668491285895</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.05657062392067744</v>
+        <v>-0.05251619674133794</v>
       </c>
     </row>
     <row r="16">
@@ -966,22 +966,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-21.8401256543788</v>
+        <v>-20.72746737883605</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-21.28937692266375</v>
+        <v>-20.85706317599971</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-19.93816218621685</v>
+        <v>-20.19806274144303</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.2574644587908473</v>
+        <v>-0.2501574823226601</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.2430611120629378</v>
+        <v>-0.238629939178566</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.2436533653661598</v>
+        <v>-0.2460177437782318</v>
       </c>
     </row>
     <row r="18">
@@ -992,22 +992,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-9.705668879574828</v>
+        <v>-9.239561650431639</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-10.25970005918862</v>
+        <v>-9.419898933669996</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-11.51979422609729</v>
+        <v>-11.68754073996881</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>-0.1199940913174461</v>
+        <v>-0.1165629881376204</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>-0.1242577946866218</v>
+        <v>-0.1139469817959808</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>-0.1485616342060141</v>
+        <v>-0.1518615074985435</v>
       </c>
     </row>
     <row r="19">
@@ -1028,7 +1028,7 @@
         <v>-14.3610542465748</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>-11.03423642836052</v>
+        <v>-11.03423642836054</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.135944134261136</v>
@@ -1037,7 +1037,7 @@
         <v>-0.1657857490291152</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.1356620345858907</v>
+        <v>-0.1356620345858909</v>
       </c>
     </row>
     <row r="20">
@@ -1048,22 +1048,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-18.16854435247035</v>
+        <v>-17.57133483961524</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-20.05909484363066</v>
+        <v>-20.33909667165096</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-15.62750160777713</v>
+        <v>-15.39571922889326</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.2022544545113759</v>
+        <v>-0.197076681298886</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2279237633372735</v>
+        <v>-0.2268114827239517</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1866848266334303</v>
+        <v>-0.1858220082818662</v>
       </c>
     </row>
     <row r="21">
@@ -1074,22 +1074,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>-5.991568077970273</v>
+        <v>-6.289495284618604</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>-8.492301711057131</v>
+        <v>-8.259803774103053</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>-6.273493299951473</v>
+        <v>-6.13369055798789</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>-0.0707696057911658</v>
+        <v>-0.07159817793347058</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.1009966090578156</v>
+        <v>-0.0985395832923637</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.07900884552406973</v>
+        <v>-0.08015000955503288</v>
       </c>
     </row>
     <row r="22">
@@ -1110,7 +1110,7 @@
         <v>-13.82849085845553</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-5.68642780665134</v>
+        <v>-5.686427806651329</v>
       </c>
       <c r="F22" s="6" t="n">
         <v>-0.1328914233096787</v>
@@ -1119,7 +1119,7 @@
         <v>-0.1560705362040328</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>-0.07902809540901838</v>
+        <v>-0.07902809540901823</v>
       </c>
     </row>
     <row r="23">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-18.15788735986174</v>
+        <v>-17.8278366634464</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-20.37601884670138</v>
+        <v>-19.90302659133303</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-11.1115595857715</v>
+        <v>-10.49532390972309</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>-0.1980251400234611</v>
+        <v>-0.1953580140791275</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.2242068380127422</v>
+        <v>-0.2199694328848369</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.1461750091533445</v>
+        <v>-0.1421236018483302</v>
       </c>
     </row>
     <row r="24">
@@ -1156,22 +1156,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-5.858861156493835</v>
+        <v>-5.369156779383694</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-7.808892387331105</v>
+        <v>-7.767514447957213</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-0.3639558480953762</v>
+        <v>-0.1845395377514945</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>-0.06771068966362134</v>
+        <v>-0.06349409773031817</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>-0.0903403447299935</v>
+        <v>-0.09054285113547536</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>-0.004966622111838633</v>
+        <v>-0.002741484175328306</v>
       </c>
     </row>
     <row r="25">
@@ -1192,7 +1192,7 @@
         <v>-10.51577305723495</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>-8.971357129223412</v>
+        <v>-8.971357129223422</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.1359402264186633</v>
@@ -1201,7 +1201,7 @@
         <v>-0.1249172200556938</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.108195088189943</v>
+        <v>-0.1081950881899432</v>
       </c>
     </row>
     <row r="26">
@@ -1212,22 +1212,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-13.47114901441861</v>
+        <v>-13.411424468717</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-12.63472579070764</v>
+        <v>-12.66958610177505</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-11.01706999398074</v>
+        <v>-10.67067676172188</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.156755470377942</v>
+        <v>-0.1561122301184295</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1483444515659166</v>
+        <v>-0.1497864864169711</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1312232740311873</v>
+        <v>-0.1270947881978949</v>
       </c>
     </row>
     <row r="27">
@@ -1238,22 +1238,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>-9.617953926156012</v>
+        <v>-9.6446334132087</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>-8.640745488659787</v>
+        <v>-8.669679987318997</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>-7.052879884267979</v>
+        <v>-7.124481311947176</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.1139234821533009</v>
+        <v>-0.1141961212971651</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.102820858597931</v>
+        <v>-0.104332779518391</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.08615785327754139</v>
+        <v>-0.08694492195212904</v>
       </c>
     </row>
     <row r="28">
